--- a/Intelligibility/mergedIntelligibility_levenshtein.xlsx
+++ b/Intelligibility/mergedIntelligibility_levenshtein.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AE26"/>
+  <dimension ref="A1:AE25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2918,99 +2918,6 @@
         <v>0.0689655172413793</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="1" t="inlineStr"/>
-      <c r="B26" t="n">
-        <v>0.0695812807881773</v>
-      </c>
-      <c r="C26" t="n">
-        <v>0.0695812807881773</v>
-      </c>
-      <c r="D26" t="n">
-        <v>0.0678571428571428</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0.0874384236453201</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0.0825892857142857</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0.0874384236453201</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0.0874384236453201</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0.0607142857142857</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0.0874384236453201</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0.0874384236453201</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0.0523399014778325</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0.0695812807881773</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0.0523399014778325</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0.104679802955665</v>
-      </c>
-      <c r="P26" t="n">
-        <v>0.0874384236453201</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>0.0344827586206896</v>
-      </c>
-      <c r="R26" t="n">
-        <v>0.0511904761904761</v>
-      </c>
-      <c r="S26" t="n">
-        <v>0.0334821428571428</v>
-      </c>
-      <c r="T26" t="n">
-        <v>0.0701970443349753</v>
-      </c>
-      <c r="U26" t="n">
-        <v>0.0345238095238095</v>
-      </c>
-      <c r="V26" t="n">
-        <v>0.0523399014778325</v>
-      </c>
-      <c r="W26" t="n">
-        <v>0.0344827586206896</v>
-      </c>
-      <c r="X26" t="n">
-        <v>0.0344827586206896</v>
-      </c>
-      <c r="Y26" t="n">
-        <v>0.0523399014778325</v>
-      </c>
-      <c r="Z26" t="n">
-        <v>0.0523399014778325</v>
-      </c>
-      <c r="AA26" t="n">
-        <v>0.0344827586206896</v>
-      </c>
-      <c r="AB26" t="n">
-        <v>0.0344827586206896</v>
-      </c>
-      <c r="AC26" t="n">
-        <v>0.0350985221674876</v>
-      </c>
-      <c r="AD26" t="n">
-        <v>0.0344827586206896</v>
-      </c>
-      <c r="AE26" t="n">
-        <v>0.0523399014778325</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
